--- a/trunk/ afgmx/AFGMX/PROCESO_DESARROLLO/F5_PRUEBAS/PL_PRUEBAS/PL_CONTROLPRUEBAS_AFGMX.xlsx
+++ b/trunk/ afgmx/AFGMX/PROCESO_DESARROLLO/F5_PRUEBAS/PL_PRUEBAS/PL_CONTROLPRUEBAS_AFGMX.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Desktop\DocumentacionTester\Pruebas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Agrofinderground\AFGMX\PROCESO_DESARROLLO\F5_PRUEBAS\PL_PRUEBAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTRAR_USUARIO" sheetId="10" r:id="rId1"/>
@@ -1329,45 +1329,103 @@
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="10" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="10" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1401,17 +1459,12 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1419,109 +1472,44 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="10" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="10" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="10" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1542,6 +1530,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="10" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1551,28 +1548,148 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="25" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1620,140 +1737,59 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="25" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1764,11 +1800,17 @@
     <xf numFmtId="15" fontId="25" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1803,12 +1845,6 @@
     <xf numFmtId="0" fontId="23" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1825,42 +1861,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2849,7 +2849,7 @@
   </sheetPr>
   <dimension ref="B1:AE96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AB2" sqref="AB2:AC4"/>
     </sheetView>
   </sheetViews>
@@ -2878,96 +2878,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
     </row>
     <row r="2" spans="2:31" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="81" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
       <c r="Z2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="62" t="s">
+      <c r="AB2" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="62"/>
+      <c r="AC2" s="82"/>
       <c r="AE2" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:31" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="63" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="82" t="s">
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="84"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="81"/>
       <c r="Z3" s="4" t="s">
         <v>13</v>
       </c>
@@ -2982,32 +2982,32 @@
       </c>
     </row>
     <row r="4" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="82" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="82" t="s">
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="84"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="81"/>
       <c r="X4" s="16"/>
       <c r="Z4" s="7" t="s">
         <v>9</v>
@@ -3023,213 +3023,213 @@
       </c>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="78" t="s">
+      <c r="H5" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="59" t="s">
+      <c r="K5" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="59" t="s">
+      <c r="L5" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="59" t="s">
+      <c r="M5" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="74" t="s">
+      <c r="N5" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="74" t="s">
+      <c r="O5" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" s="76" t="s">
+      <c r="Q5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="76" t="s">
+      <c r="R5" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="73" t="s">
+      <c r="S5" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="75" t="s">
+      <c r="T5" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="U5" s="76" t="s">
+      <c r="U5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="V5" s="76" t="s">
+      <c r="V5" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="W5" s="77" t="s">
+      <c r="W5" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="X5" s="73" t="s">
+      <c r="X5" s="64" t="s">
         <v>17</v>
       </c>
       <c r="AC5" s="24"/>
     </row>
     <row r="6" spans="2:31" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="106"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
       <c r="AC6" s="24"/>
     </row>
     <row r="7" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="91">
+      <c r="C7" s="49">
         <v>1</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="94"/>
-      <c r="G7" s="95" t="s">
+      <c r="F7" s="73"/>
+      <c r="G7" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="108"/>
-      <c r="I7" s="60" t="s">
+      <c r="H7" s="56"/>
+      <c r="I7" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="48" t="s">
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="99">
+      <c r="Q7" s="45">
         <v>42091</v>
       </c>
-      <c r="R7" s="99">
+      <c r="R7" s="45">
         <v>42092</v>
       </c>
-      <c r="S7" s="91" t="s">
+      <c r="S7" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="T7" s="101" t="s">
+      <c r="T7" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="U7" s="99">
+      <c r="U7" s="45">
         <v>42093</v>
       </c>
-      <c r="V7" s="99">
+      <c r="V7" s="45">
         <v>42093</v>
       </c>
-      <c r="W7" s="101" t="s">
+      <c r="W7" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="X7" s="91" t="s">
+      <c r="X7" s="49" t="s">
         <v>43</v>
       </c>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
     </row>
     <row r="8" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="46"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="99"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="101"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="99"/>
-      <c r="W8" s="101"/>
-      <c r="X8" s="103"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="50"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
     </row>
     <row r="9" spans="2:31" s="11" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="47"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="102"/>
-      <c r="U9" s="100"/>
-      <c r="V9" s="100"/>
-      <c r="W9" s="102"/>
-      <c r="X9" s="104"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="51"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
     </row>
@@ -3248,7 +3248,7 @@
       <c r="P10" s="8"/>
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="D11" s="96" t="s">
+      <c r="D11" s="66" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="10">
@@ -3295,35 +3295,35 @@
       <c r="P11" s="8"/>
     </row>
     <row r="12" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="97"/>
-      <c r="E12" s="85" t="s">
+      <c r="D12" s="67"/>
+      <c r="E12" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="85" t="s">
+      <c r="F12" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="85" t="s">
+      <c r="G12" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="85" t="s">
+      <c r="H12" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="85" t="s">
+      <c r="I12" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="85" t="s">
+      <c r="J12" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="85" t="s">
+      <c r="K12" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="85" t="s">
+      <c r="L12" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="85" t="s">
+      <c r="M12" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="87" t="s">
+      <c r="N12" s="75" t="s">
         <v>10</v>
       </c>
       <c r="O12" s="8"/>
@@ -3334,16 +3334,16 @@
         <f>SUM(E11:N11)</f>
         <v>3</v>
       </c>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="88"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="76"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
     </row>
@@ -4512,6 +4512,58 @@
   </sheetData>
   <autoFilter ref="B5:X9"/>
   <mergeCells count="68">
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="E1:X1"/>
+    <mergeCell ref="E2:X2"/>
+    <mergeCell ref="P3:X3"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
     <mergeCell ref="V7:V9"/>
     <mergeCell ref="W7:W9"/>
     <mergeCell ref="X7:X9"/>
@@ -4528,58 +4580,6 @@
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="E1:X1"/>
-    <mergeCell ref="E2:X2"/>
-    <mergeCell ref="P3:X3"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G7:G9"/>
   </mergeCells>
   <conditionalFormatting sqref="Z3:Z4 O7:P7">
     <cfRule type="cellIs" dxfId="56" priority="14" operator="equal">
@@ -4662,7 +4662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH88"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="P7" sqref="P7:P9"/>
     </sheetView>
   </sheetViews>
@@ -4690,28 +4690,28 @@
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
@@ -4775,33 +4775,33 @@
     </row>
     <row r="2" spans="1:86" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="81" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -4865,42 +4865,42 @@
     </row>
     <row r="3" spans="1:86" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="63" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="82" t="s">
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="84"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="81"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="62" t="s">
+      <c r="AB3" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="AC3" s="62"/>
+      <c r="AC3" s="82"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="19" t="s">
         <v>16</v>
@@ -4963,32 +4963,32 @@
     </row>
     <row r="4" spans="1:86" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="82" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="82" t="s">
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="84"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="81"/>
       <c r="X4" s="16"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="4" t="s">
@@ -5063,73 +5063,73 @@
     </row>
     <row r="5" spans="1:86" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="78" t="s">
+      <c r="H5" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="59" t="s">
+      <c r="K5" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="59" t="s">
+      <c r="L5" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="59" t="s">
+      <c r="M5" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="74" t="s">
+      <c r="N5" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="74" t="s">
+      <c r="O5" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" s="76" t="s">
+      <c r="Q5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="76" t="s">
+      <c r="R5" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="73" t="s">
+      <c r="S5" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="75" t="s">
+      <c r="T5" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="U5" s="76" t="s">
+      <c r="U5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="V5" s="76" t="s">
+      <c r="V5" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="W5" s="77" t="s">
+      <c r="W5" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="X5" s="73" t="s">
+      <c r="X5" s="64" t="s">
         <v>17</v>
       </c>
       <c r="Y5" s="2"/>
@@ -5205,29 +5205,29 @@
     </row>
     <row r="6" spans="1:86" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
@@ -5293,55 +5293,55 @@
     </row>
     <row r="7" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="91">
+      <c r="C7" s="49">
         <v>1</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="95" t="s">
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="108"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="48" t="s">
+      <c r="H7" s="56"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="119" t="s">
+      <c r="P7" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="110">
+      <c r="Q7" s="118">
         <v>42091</v>
       </c>
-      <c r="R7" s="110">
+      <c r="R7" s="118">
         <v>42091</v>
       </c>
-      <c r="S7" s="122" t="s">
+      <c r="S7" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="T7" s="113" t="s">
+      <c r="T7" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="U7" s="110">
+      <c r="U7" s="118">
         <v>42094</v>
       </c>
-      <c r="V7" s="110">
+      <c r="V7" s="118">
         <v>42094</v>
       </c>
-      <c r="W7" s="113" t="s">
+      <c r="W7" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="X7" s="116" t="s">
+      <c r="X7" s="112" t="s">
         <v>38</v>
       </c>
       <c r="Y7" s="11"/>
@@ -5409,29 +5409,29 @@
     </row>
     <row r="8" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="120"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="123"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="111"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="117"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="122"/>
+      <c r="T8" s="125"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="125"/>
+      <c r="X8" s="113"/>
       <c r="Y8" s="11"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
@@ -5497,29 +5497,29 @@
     </row>
     <row r="9" spans="1:86" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="121"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="112"/>
-      <c r="S9" s="124"/>
-      <c r="T9" s="115"/>
-      <c r="U9" s="112"/>
-      <c r="V9" s="112"/>
-      <c r="W9" s="115"/>
-      <c r="X9" s="118"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="126"/>
+      <c r="U9" s="120"/>
+      <c r="V9" s="120"/>
+      <c r="W9" s="126"/>
+      <c r="X9" s="114"/>
       <c r="Y9" s="11"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
@@ -5585,55 +5585,55 @@
     </row>
     <row r="10" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="91">
+      <c r="B10" s="100"/>
+      <c r="C10" s="49">
         <v>2</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="92"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="95" t="s">
+      <c r="E10" s="72"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="92"/>
-      <c r="I10" s="94" t="s">
+      <c r="H10" s="72"/>
+      <c r="I10" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="48" t="s">
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="48" t="s">
+      <c r="P10" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="125">
+      <c r="Q10" s="110">
         <v>42091</v>
       </c>
-      <c r="R10" s="125">
+      <c r="R10" s="110">
         <v>42091</v>
       </c>
-      <c r="S10" s="91" t="s">
+      <c r="S10" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="T10" s="126" t="s">
+      <c r="T10" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="U10" s="125">
+      <c r="U10" s="110">
         <v>42094</v>
       </c>
-      <c r="V10" s="125">
+      <c r="V10" s="110">
         <v>42094</v>
       </c>
-      <c r="W10" s="126" t="s">
+      <c r="W10" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="X10" s="91" t="s">
+      <c r="X10" s="49" t="s">
         <v>38</v>
       </c>
       <c r="Y10" s="11"/>
@@ -5701,29 +5701,29 @@
     </row>
     <row r="11" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="103"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="101"/>
-      <c r="X11" s="103"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="50"/>
       <c r="Y11" s="11"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
@@ -5789,29 +5789,29 @@
     </row>
     <row r="12" spans="1:86" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="100"/>
-      <c r="S12" s="104"/>
-      <c r="T12" s="102"/>
-      <c r="U12" s="100"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="102"/>
-      <c r="X12" s="104"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="51"/>
       <c r="Y12" s="11"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
@@ -6055,7 +6055,7 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="66" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="10">
@@ -6175,35 +6175,35 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="85" t="s">
+      <c r="D16" s="67"/>
+      <c r="E16" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="85" t="s">
+      <c r="F16" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="85" t="s">
+      <c r="G16" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="85" t="s">
+      <c r="H16" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="I16" s="85" t="s">
+      <c r="I16" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="J16" s="85" t="s">
+      <c r="J16" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="85" t="s">
+      <c r="K16" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="85" t="s">
+      <c r="L16" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="85" t="s">
+      <c r="M16" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="87" t="s">
+      <c r="N16" s="75" t="s">
         <v>10</v>
       </c>
       <c r="O16" s="8"/>
@@ -6287,16 +6287,16 @@
         <f>SUM(E15:N15)</f>
         <v>3</v>
       </c>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="88"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="76"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="12"/>
@@ -12596,6 +12596,80 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="E1:X1"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:X2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:X3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="T7:T9"/>
+    <mergeCell ref="U7:U9"/>
+    <mergeCell ref="U10:U12"/>
+    <mergeCell ref="V10:V12"/>
+    <mergeCell ref="W10:W12"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="V7:V9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="X7:X9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="Q7:Q9"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="W7:W9"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="R10:R12"/>
+    <mergeCell ref="S10:S12"/>
+    <mergeCell ref="T10:T12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
     <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="J16:J17"/>
@@ -12612,80 +12686,6 @@
     <mergeCell ref="X10:X12"/>
     <mergeCell ref="O10:O12"/>
     <mergeCell ref="P10:P12"/>
-    <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="S10:S12"/>
-    <mergeCell ref="T10:T12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="X7:X9"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="Q7:Q9"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="T7:T9"/>
-    <mergeCell ref="U7:U9"/>
-    <mergeCell ref="U10:U12"/>
-    <mergeCell ref="V10:V12"/>
-    <mergeCell ref="W10:W12"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="V7:V9"/>
-    <mergeCell ref="W7:W9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="E1:X1"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:X2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:X3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="N5:N6"/>
   </mergeCells>
   <conditionalFormatting sqref="AE5">
     <cfRule type="iconSet" priority="2">
@@ -12981,7 +12981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CD101"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="T7" sqref="T7:T9"/>
     </sheetView>
   </sheetViews>
@@ -12998,28 +12998,28 @@
       <c r="B1" s="25"/>
       <c r="C1" s="26"/>
       <c r="D1" s="25"/>
-      <c r="E1" s="186" t="s">
+      <c r="E1" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="186"/>
-      <c r="S1" s="186"/>
-      <c r="T1" s="186"/>
-      <c r="U1" s="186"/>
-      <c r="V1" s="186"/>
-      <c r="W1" s="186"/>
-      <c r="X1" s="186"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
       <c r="Y1" s="25"/>
       <c r="Z1" s="25"/>
       <c r="AA1" s="25"/>
@@ -13081,42 +13081,42 @@
     </row>
     <row r="2" spans="1:82" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25"/>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="189" t="s">
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="189"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="189"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
       <c r="Y2" s="25"/>
       <c r="Z2" s="27" t="s">
         <v>19</v>
       </c>
       <c r="AA2" s="25"/>
-      <c r="AB2" s="190" t="s">
+      <c r="AB2" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="190"/>
+      <c r="AC2" s="131"/>
       <c r="AD2" s="25"/>
       <c r="AE2" s="28" t="s">
         <v>16</v>
@@ -13175,33 +13175,33 @@
     </row>
     <row r="3" spans="1:82" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="191" t="s">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="193"/>
-      <c r="O3" s="194"/>
-      <c r="P3" s="175" t="s">
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="135"/>
+      <c r="P3" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="176"/>
-      <c r="S3" s="176"/>
-      <c r="T3" s="176"/>
-      <c r="U3" s="176"/>
-      <c r="V3" s="176"/>
-      <c r="W3" s="176"/>
-      <c r="X3" s="177"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="139"/>
       <c r="Y3" s="25"/>
       <c r="Z3" s="29" t="s">
         <v>13</v>
@@ -13271,32 +13271,32 @@
     </row>
     <row r="4" spans="1:82" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
-      <c r="B4" s="188"/>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="197"/>
-      <c r="G4" s="198"/>
-      <c r="H4" s="196"/>
-      <c r="I4" s="197"/>
-      <c r="J4" s="197"/>
-      <c r="K4" s="197"/>
-      <c r="L4" s="197"/>
-      <c r="M4" s="197"/>
-      <c r="N4" s="197"/>
-      <c r="O4" s="195"/>
-      <c r="P4" s="175" t="s">
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="176"/>
-      <c r="R4" s="176"/>
-      <c r="S4" s="177"/>
-      <c r="T4" s="175" t="s">
+      <c r="Q4" s="138"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="176"/>
-      <c r="V4" s="176"/>
-      <c r="W4" s="177"/>
+      <c r="U4" s="138"/>
+      <c r="V4" s="138"/>
+      <c r="W4" s="139"/>
       <c r="X4" s="32"/>
       <c r="Y4" s="25"/>
       <c r="Z4" s="33" t="s">
@@ -13367,73 +13367,73 @@
     </row>
     <row r="5" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
-      <c r="B5" s="178" t="s">
+      <c r="B5" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="180" t="s">
+      <c r="C5" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="181" t="s">
+      <c r="D5" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="182" t="s">
+      <c r="E5" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="183" t="s">
+      <c r="F5" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="184" t="s">
+      <c r="G5" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="185" t="s">
+      <c r="H5" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="171" t="s">
+      <c r="I5" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="171" t="s">
+      <c r="J5" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="171" t="s">
+      <c r="K5" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="171" t="s">
+      <c r="L5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="171" t="s">
+      <c r="M5" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="172" t="s">
+      <c r="N5" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="172" t="s">
+      <c r="O5" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="173" t="s">
+      <c r="P5" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" s="169" t="s">
+      <c r="Q5" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="169" t="s">
+      <c r="R5" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="158" t="s">
+      <c r="S5" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="170" t="s">
+      <c r="T5" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="U5" s="169" t="s">
+      <c r="U5" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="V5" s="169" t="s">
+      <c r="V5" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="W5" s="157" t="s">
+      <c r="W5" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="X5" s="158" t="s">
+      <c r="X5" s="163" t="s">
         <v>17</v>
       </c>
       <c r="Y5" s="25"/>
@@ -13497,29 +13497,29 @@
     </row>
     <row r="6" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="150"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="151"/>
       <c r="G6" s="153"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="150"/>
-      <c r="M6" s="150"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
       <c r="N6" s="153"/>
       <c r="O6" s="153"/>
-      <c r="P6" s="174"/>
-      <c r="Q6" s="155"/>
-      <c r="R6" s="155"/>
-      <c r="S6" s="155"/>
-      <c r="T6" s="155"/>
-      <c r="U6" s="155"/>
-      <c r="V6" s="155"/>
-      <c r="W6" s="155"/>
-      <c r="X6" s="155"/>
+      <c r="P6" s="160"/>
+      <c r="Q6" s="157"/>
+      <c r="R6" s="157"/>
+      <c r="S6" s="157"/>
+      <c r="T6" s="157"/>
+      <c r="U6" s="157"/>
+      <c r="V6" s="157"/>
+      <c r="W6" s="157"/>
+      <c r="X6" s="157"/>
       <c r="Y6" s="25"/>
       <c r="Z6" s="25"/>
       <c r="AA6" s="25"/>
@@ -13581,55 +13581,55 @@
     </row>
     <row r="7" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="162">
+      <c r="C7" s="167">
         <v>1</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="163"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="167" t="s">
+      <c r="E7" s="168"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="168"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="148"/>
-      <c r="K7" s="148"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148"/>
-      <c r="N7" s="151"/>
-      <c r="O7" s="154" t="s">
+      <c r="H7" s="174"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="175"/>
+      <c r="L7" s="175"/>
+      <c r="M7" s="175"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="142" t="s">
+      <c r="P7" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="133">
+      <c r="Q7" s="178">
         <v>42091</v>
       </c>
-      <c r="R7" s="133">
+      <c r="R7" s="178">
         <v>42091</v>
       </c>
-      <c r="S7" s="145" t="s">
+      <c r="S7" s="190" t="s">
         <v>38</v>
       </c>
-      <c r="T7" s="136" t="s">
+      <c r="T7" s="181" t="s">
         <v>40</v>
       </c>
-      <c r="U7" s="133">
+      <c r="U7" s="178">
         <v>42094</v>
       </c>
-      <c r="V7" s="133">
+      <c r="V7" s="178">
         <v>42094</v>
       </c>
-      <c r="W7" s="136" t="s">
+      <c r="W7" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="X7" s="139" t="s">
+      <c r="X7" s="184" t="s">
         <v>43</v>
       </c>
       <c r="Y7" s="36"/>
@@ -13693,29 +13693,29 @@
     </row>
     <row r="8" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="149"/>
-      <c r="K8" s="149"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="149"/>
-      <c r="N8" s="152"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="143"/>
-      <c r="Q8" s="134"/>
-      <c r="R8" s="134"/>
-      <c r="S8" s="146"/>
-      <c r="T8" s="137"/>
-      <c r="U8" s="134"/>
-      <c r="V8" s="134"/>
-      <c r="W8" s="137"/>
-      <c r="X8" s="140"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="171"/>
+      <c r="L8" s="171"/>
+      <c r="M8" s="171"/>
+      <c r="N8" s="173"/>
+      <c r="O8" s="157"/>
+      <c r="P8" s="188"/>
+      <c r="Q8" s="179"/>
+      <c r="R8" s="179"/>
+      <c r="S8" s="191"/>
+      <c r="T8" s="182"/>
+      <c r="U8" s="179"/>
+      <c r="V8" s="179"/>
+      <c r="W8" s="182"/>
+      <c r="X8" s="185"/>
       <c r="Y8" s="36"/>
       <c r="Z8" s="36"/>
       <c r="AA8" s="36"/>
@@ -13777,29 +13777,29 @@
     </row>
     <row r="9" spans="1:82" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36"/>
-      <c r="B9" s="161"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="165"/>
-      <c r="F9" s="150"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="151"/>
       <c r="G9" s="153"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="150"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
       <c r="N9" s="153"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="135"/>
-      <c r="R9" s="135"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="138"/>
-      <c r="U9" s="135"/>
-      <c r="V9" s="135"/>
-      <c r="W9" s="138"/>
-      <c r="X9" s="141"/>
+      <c r="O9" s="146"/>
+      <c r="P9" s="189"/>
+      <c r="Q9" s="180"/>
+      <c r="R9" s="180"/>
+      <c r="S9" s="192"/>
+      <c r="T9" s="183"/>
+      <c r="U9" s="180"/>
+      <c r="V9" s="180"/>
+      <c r="W9" s="183"/>
+      <c r="X9" s="186"/>
       <c r="Y9" s="36"/>
       <c r="Z9" s="36"/>
       <c r="AA9" s="36"/>
@@ -13947,7 +13947,7 @@
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
-      <c r="D11" s="131" t="s">
+      <c r="D11" s="197" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="39">
@@ -14063,35 +14063,35 @@
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="127" t="s">
+      <c r="D12" s="198"/>
+      <c r="E12" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="127" t="s">
+      <c r="F12" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="127" t="s">
+      <c r="G12" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="127" t="s">
+      <c r="H12" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="127" t="s">
+      <c r="I12" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="127" t="s">
+      <c r="J12" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="127" t="s">
+      <c r="K12" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="127" t="s">
+      <c r="L12" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="127" t="s">
+      <c r="M12" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="129" t="s">
+      <c r="N12" s="195" t="s">
         <v>10</v>
       </c>
       <c r="O12" s="37"/>
@@ -14171,16 +14171,16 @@
         <f>SUM(E11:N11)</f>
         <v>1</v>
       </c>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128"/>
-      <c r="N13" s="130"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="194"/>
+      <c r="J13" s="194"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="194"/>
+      <c r="M13" s="194"/>
+      <c r="N13" s="196"/>
       <c r="O13" s="37"/>
       <c r="P13" s="37"/>
       <c r="Q13" s="38"/>
@@ -21644,33 +21644,31 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="E1:X1"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:X2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:X3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="V7:V9"/>
+    <mergeCell ref="W7:W9"/>
+    <mergeCell ref="X7:X9"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="Q7:Q9"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="T7:T9"/>
+    <mergeCell ref="U7:U9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="N7:N9"/>
     <mergeCell ref="O7:O9"/>
     <mergeCell ref="W5:W6"/>
     <mergeCell ref="X5:X6"/>
@@ -21687,31 +21685,33 @@
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="U5:U6"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="V7:V9"/>
-    <mergeCell ref="W7:W9"/>
-    <mergeCell ref="X7:X9"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="Q7:Q9"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="T7:T9"/>
-    <mergeCell ref="U7:U9"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E1:X1"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:X2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:X3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
   </mergeCells>
   <conditionalFormatting sqref="Z3:Z4 O7:P7">
     <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
@@ -21794,7 +21794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CF100"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:M3"/>
     </sheetView>
   </sheetViews>
@@ -21813,28 +21813,28 @@
       <c r="A1" s="25"/>
       <c r="B1" s="26"/>
       <c r="C1" s="25"/>
-      <c r="D1" s="186" t="s">
+      <c r="D1" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="186"/>
-      <c r="S1" s="186"/>
-      <c r="T1" s="186"/>
-      <c r="U1" s="186"/>
-      <c r="V1" s="186"/>
-      <c r="W1" s="186"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
       <c r="X1" s="25"/>
       <c r="Y1" s="25"/>
       <c r="Z1" s="25"/>
@@ -21898,42 +21898,42 @@
       <c r="CF1" s="25"/>
     </row>
     <row r="2" spans="1:84" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="189" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="189"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="189"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
       <c r="X2" s="25"/>
       <c r="Y2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Z2" s="25"/>
-      <c r="AA2" s="62" t="s">
+      <c r="AA2" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" s="62"/>
+      <c r="AB2" s="82"/>
       <c r="AC2" s="25"/>
       <c r="AD2" s="28" t="s">
         <v>16</v>
@@ -21994,33 +21994,33 @@
       <c r="CF2" s="25"/>
     </row>
     <row r="3" spans="1:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="187"/>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="191" t="s">
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="193"/>
-      <c r="N3" s="194"/>
-      <c r="O3" s="175" t="s">
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="176"/>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="176"/>
-      <c r="S3" s="176"/>
-      <c r="T3" s="176"/>
-      <c r="U3" s="176"/>
-      <c r="V3" s="176"/>
-      <c r="W3" s="177"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="139"/>
       <c r="X3" s="25"/>
       <c r="Y3" s="4" t="s">
         <v>13</v>
@@ -22092,32 +22092,32 @@
       <c r="CF3" s="25"/>
     </row>
     <row r="4" spans="1:84" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="188"/>
-      <c r="B4" s="188"/>
-      <c r="C4" s="188"/>
-      <c r="D4" s="196"/>
-      <c r="E4" s="197"/>
-      <c r="F4" s="198"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="197"/>
-      <c r="I4" s="197"/>
-      <c r="J4" s="197"/>
-      <c r="K4" s="197"/>
-      <c r="L4" s="197"/>
-      <c r="M4" s="197"/>
-      <c r="N4" s="195"/>
-      <c r="O4" s="175" t="s">
+      <c r="A4" s="129"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="176"/>
-      <c r="Q4" s="176"/>
-      <c r="R4" s="177"/>
-      <c r="S4" s="175" t="s">
+      <c r="P4" s="138"/>
+      <c r="Q4" s="138"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="176"/>
-      <c r="U4" s="176"/>
-      <c r="V4" s="177"/>
+      <c r="T4" s="138"/>
+      <c r="U4" s="138"/>
+      <c r="V4" s="139"/>
       <c r="W4" s="32"/>
       <c r="X4" s="25"/>
       <c r="Y4" s="7" t="s">
@@ -22190,73 +22190,73 @@
       <c r="CF4" s="25"/>
     </row>
     <row r="5" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A5" s="178" t="s">
+      <c r="A5" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="180" t="s">
+      <c r="B5" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="181" t="s">
+      <c r="C5" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="182" t="s">
+      <c r="D5" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="183" t="s">
+      <c r="E5" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="184" t="s">
+      <c r="F5" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="185" t="s">
+      <c r="G5" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="171" t="s">
+      <c r="H5" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="171" t="s">
+      <c r="I5" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="171" t="s">
+      <c r="J5" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="171" t="s">
+      <c r="K5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="171" t="s">
+      <c r="L5" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="172" t="s">
+      <c r="M5" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="172" t="s">
+      <c r="N5" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="173" t="s">
+      <c r="O5" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="169" t="s">
+      <c r="P5" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="169" t="s">
+      <c r="Q5" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="158" t="s">
+      <c r="R5" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="170" t="s">
+      <c r="S5" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="169" t="s">
+      <c r="T5" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="U5" s="169" t="s">
+      <c r="U5" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="V5" s="157" t="s">
+      <c r="V5" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="158" t="s">
+      <c r="W5" s="163" t="s">
         <v>17</v>
       </c>
       <c r="X5" s="25"/>
@@ -22322,29 +22322,29 @@
       <c r="CF5" s="25"/>
     </row>
     <row r="6" spans="1:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="179"/>
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="150"/>
+      <c r="A6" s="144"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="151"/>
       <c r="F6" s="153"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="150"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
       <c r="M6" s="153"/>
       <c r="N6" s="153"/>
-      <c r="O6" s="174"/>
-      <c r="P6" s="155"/>
-      <c r="Q6" s="155"/>
-      <c r="R6" s="155"/>
-      <c r="S6" s="155"/>
-      <c r="T6" s="155"/>
-      <c r="U6" s="155"/>
-      <c r="V6" s="155"/>
-      <c r="W6" s="155"/>
+      <c r="O6" s="160"/>
+      <c r="P6" s="157"/>
+      <c r="Q6" s="157"/>
+      <c r="R6" s="157"/>
+      <c r="S6" s="157"/>
+      <c r="T6" s="157"/>
+      <c r="U6" s="157"/>
+      <c r="V6" s="157"/>
+      <c r="W6" s="157"/>
       <c r="X6" s="25"/>
       <c r="Y6" s="25"/>
       <c r="Z6" s="25"/>
@@ -22408,55 +22408,55 @@
       <c r="CF6" s="25"/>
     </row>
     <row r="7" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="204" t="s">
+      <c r="A7" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="162">
+      <c r="B7" s="167">
         <v>1</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="163"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="167" t="s">
+      <c r="D7" s="168"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="168"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="148"/>
-      <c r="K7" s="148"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="151"/>
-      <c r="N7" s="154" t="s">
+      <c r="G7" s="174"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="175"/>
+      <c r="L7" s="175"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="119" t="s">
+      <c r="O7" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="199">
+      <c r="P7" s="211">
         <v>42091</v>
       </c>
-      <c r="Q7" s="199">
+      <c r="Q7" s="211">
         <v>42091</v>
       </c>
-      <c r="R7" s="162" t="s">
+      <c r="R7" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="S7" s="101" t="s">
+      <c r="S7" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="T7" s="199">
+      <c r="T7" s="211">
         <v>42094</v>
       </c>
-      <c r="U7" s="199">
+      <c r="U7" s="211">
         <v>42094</v>
       </c>
-      <c r="V7" s="136" t="s">
+      <c r="V7" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="W7" s="162" t="s">
+      <c r="W7" s="167" t="s">
         <v>43</v>
       </c>
       <c r="X7" s="36"/>
@@ -22522,29 +22522,29 @@
       <c r="CF7" s="36"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A8" s="205"/>
-      <c r="B8" s="202"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="227"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="231"/>
-      <c r="G8" s="233"/>
-      <c r="H8" s="223"/>
-      <c r="I8" s="223"/>
-      <c r="J8" s="223"/>
-      <c r="K8" s="223"/>
-      <c r="L8" s="223"/>
-      <c r="M8" s="225"/>
-      <c r="N8" s="215"/>
-      <c r="O8" s="120"/>
-      <c r="P8" s="200"/>
-      <c r="Q8" s="200"/>
-      <c r="R8" s="202"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="200"/>
-      <c r="U8" s="200"/>
-      <c r="V8" s="137"/>
-      <c r="W8" s="202"/>
+      <c r="A8" s="219"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="201"/>
+      <c r="E8" s="203"/>
+      <c r="F8" s="205"/>
+      <c r="G8" s="207"/>
+      <c r="H8" s="209"/>
+      <c r="I8" s="209"/>
+      <c r="J8" s="209"/>
+      <c r="K8" s="209"/>
+      <c r="L8" s="209"/>
+      <c r="M8" s="214"/>
+      <c r="N8" s="216"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="212"/>
+      <c r="Q8" s="212"/>
+      <c r="R8" s="199"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="212"/>
+      <c r="U8" s="212"/>
+      <c r="V8" s="182"/>
+      <c r="W8" s="199"/>
       <c r="X8" s="36"/>
       <c r="Y8" s="36"/>
       <c r="Z8" s="36"/>
@@ -22608,29 +22608,29 @@
       <c r="CF8" s="36"/>
     </row>
     <row r="9" spans="1:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="205"/>
-      <c r="B9" s="203"/>
-      <c r="C9" s="203"/>
-      <c r="D9" s="228"/>
-      <c r="E9" s="230"/>
-      <c r="F9" s="232"/>
-      <c r="G9" s="234"/>
-      <c r="H9" s="224"/>
-      <c r="I9" s="224"/>
-      <c r="J9" s="224"/>
-      <c r="K9" s="224"/>
-      <c r="L9" s="224"/>
-      <c r="M9" s="226"/>
-      <c r="N9" s="216"/>
-      <c r="O9" s="121"/>
-      <c r="P9" s="201"/>
-      <c r="Q9" s="201"/>
-      <c r="R9" s="203"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="201"/>
-      <c r="U9" s="201"/>
-      <c r="V9" s="138"/>
-      <c r="W9" s="203"/>
+      <c r="A9" s="219"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="206"/>
+      <c r="G9" s="208"/>
+      <c r="H9" s="210"/>
+      <c r="I9" s="210"/>
+      <c r="J9" s="210"/>
+      <c r="K9" s="210"/>
+      <c r="L9" s="210"/>
+      <c r="M9" s="215"/>
+      <c r="N9" s="217"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="213"/>
+      <c r="Q9" s="213"/>
+      <c r="R9" s="200"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="213"/>
+      <c r="U9" s="213"/>
+      <c r="V9" s="183"/>
+      <c r="W9" s="200"/>
       <c r="X9" s="36"/>
       <c r="Y9" s="36"/>
       <c r="Z9" s="36"/>
@@ -22694,53 +22694,53 @@
       <c r="CF9" s="36"/>
     </row>
     <row r="10" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="205"/>
-      <c r="B10" s="162">
+      <c r="A10" s="219"/>
+      <c r="B10" s="167">
         <v>2</v>
       </c>
-      <c r="C10" s="162" t="s">
+      <c r="C10" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="163"/>
-      <c r="E10" s="166"/>
-      <c r="F10" s="167" t="s">
+      <c r="D10" s="168"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="168"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="151"/>
-      <c r="N10" s="154" t="s">
+      <c r="G10" s="174"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="175"/>
+      <c r="L10" s="175"/>
+      <c r="M10" s="177"/>
+      <c r="N10" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="119" t="s">
+      <c r="O10" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="199">
+      <c r="P10" s="211">
         <v>42091</v>
       </c>
-      <c r="Q10" s="199">
+      <c r="Q10" s="211">
         <v>42091</v>
       </c>
-      <c r="R10" s="162" t="s">
+      <c r="R10" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="S10" s="101" t="s">
+      <c r="S10" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="T10" s="199">
+      <c r="T10" s="211">
         <v>42094</v>
       </c>
-      <c r="U10" s="199">
+      <c r="U10" s="211">
         <v>42094</v>
       </c>
-      <c r="V10" s="136" t="s">
+      <c r="V10" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="W10" s="162" t="s">
+      <c r="W10" s="167" t="s">
         <v>43</v>
       </c>
       <c r="X10" s="36"/>
@@ -22806,29 +22806,29 @@
       <c r="CF10" s="36"/>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A11" s="205"/>
-      <c r="B11" s="202"/>
-      <c r="C11" s="202"/>
-      <c r="D11" s="227"/>
-      <c r="E11" s="229"/>
-      <c r="F11" s="231"/>
-      <c r="G11" s="233"/>
-      <c r="H11" s="223"/>
-      <c r="I11" s="223"/>
-      <c r="J11" s="223"/>
-      <c r="K11" s="223"/>
-      <c r="L11" s="223"/>
-      <c r="M11" s="225"/>
-      <c r="N11" s="215"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="200"/>
-      <c r="Q11" s="200"/>
-      <c r="R11" s="202"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="200"/>
-      <c r="U11" s="200"/>
-      <c r="V11" s="137"/>
-      <c r="W11" s="202"/>
+      <c r="A11" s="219"/>
+      <c r="B11" s="199"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="203"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="207"/>
+      <c r="H11" s="209"/>
+      <c r="I11" s="209"/>
+      <c r="J11" s="209"/>
+      <c r="K11" s="209"/>
+      <c r="L11" s="209"/>
+      <c r="M11" s="214"/>
+      <c r="N11" s="216"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="212"/>
+      <c r="Q11" s="212"/>
+      <c r="R11" s="199"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="212"/>
+      <c r="U11" s="212"/>
+      <c r="V11" s="182"/>
+      <c r="W11" s="199"/>
       <c r="X11" s="36"/>
       <c r="Y11" s="36"/>
       <c r="Z11" s="36"/>
@@ -22892,29 +22892,29 @@
       <c r="CF11" s="36"/>
     </row>
     <row r="12" spans="1:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="205"/>
-      <c r="B12" s="203"/>
-      <c r="C12" s="203"/>
-      <c r="D12" s="228"/>
-      <c r="E12" s="230"/>
-      <c r="F12" s="232"/>
-      <c r="G12" s="234"/>
-      <c r="H12" s="224"/>
-      <c r="I12" s="224"/>
-      <c r="J12" s="224"/>
-      <c r="K12" s="224"/>
-      <c r="L12" s="224"/>
-      <c r="M12" s="226"/>
-      <c r="N12" s="216"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="201"/>
-      <c r="Q12" s="201"/>
-      <c r="R12" s="203"/>
-      <c r="S12" s="102"/>
-      <c r="T12" s="201"/>
-      <c r="U12" s="201"/>
-      <c r="V12" s="138"/>
-      <c r="W12" s="203"/>
+      <c r="A12" s="219"/>
+      <c r="B12" s="200"/>
+      <c r="C12" s="200"/>
+      <c r="D12" s="202"/>
+      <c r="E12" s="204"/>
+      <c r="F12" s="206"/>
+      <c r="G12" s="208"/>
+      <c r="H12" s="210"/>
+      <c r="I12" s="210"/>
+      <c r="J12" s="210"/>
+      <c r="K12" s="210"/>
+      <c r="L12" s="210"/>
+      <c r="M12" s="215"/>
+      <c r="N12" s="217"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="213"/>
+      <c r="Q12" s="213"/>
+      <c r="R12" s="200"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="213"/>
+      <c r="U12" s="213"/>
+      <c r="V12" s="183"/>
+      <c r="W12" s="200"/>
       <c r="X12" s="36"/>
       <c r="Y12" s="36"/>
       <c r="Z12" s="36"/>
@@ -22978,53 +22978,53 @@
       <c r="CF12" s="36"/>
     </row>
     <row r="13" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="205"/>
-      <c r="B13" s="162">
+      <c r="A13" s="219"/>
+      <c r="B13" s="167">
         <v>3</v>
       </c>
-      <c r="C13" s="162" t="s">
+      <c r="C13" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="163"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="167" t="s">
+      <c r="D13" s="168"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="168"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="148"/>
-      <c r="K13" s="148"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="154" t="s">
+      <c r="G13" s="174"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="175"/>
+      <c r="L13" s="175"/>
+      <c r="M13" s="177"/>
+      <c r="N13" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="119" t="s">
+      <c r="O13" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="P13" s="199">
+      <c r="P13" s="211">
         <v>42091</v>
       </c>
-      <c r="Q13" s="199">
+      <c r="Q13" s="211">
         <v>42091</v>
       </c>
-      <c r="R13" s="162" t="s">
+      <c r="R13" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="S13" s="101" t="s">
+      <c r="S13" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="T13" s="199">
+      <c r="T13" s="211">
         <v>42094</v>
       </c>
-      <c r="U13" s="199">
+      <c r="U13" s="211">
         <v>42094</v>
       </c>
-      <c r="V13" s="136" t="s">
+      <c r="V13" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="W13" s="162" t="s">
+      <c r="W13" s="167" t="s">
         <v>43</v>
       </c>
       <c r="X13" s="36"/>
@@ -23090,29 +23090,29 @@
       <c r="CF13" s="36"/>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A14" s="205"/>
-      <c r="B14" s="202"/>
-      <c r="C14" s="202"/>
-      <c r="D14" s="227"/>
-      <c r="E14" s="229"/>
-      <c r="F14" s="231"/>
-      <c r="G14" s="233"/>
-      <c r="H14" s="223"/>
-      <c r="I14" s="223"/>
-      <c r="J14" s="223"/>
-      <c r="K14" s="223"/>
-      <c r="L14" s="223"/>
-      <c r="M14" s="225"/>
-      <c r="N14" s="215"/>
-      <c r="O14" s="120"/>
-      <c r="P14" s="200"/>
-      <c r="Q14" s="200"/>
-      <c r="R14" s="202"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="200"/>
-      <c r="U14" s="200"/>
-      <c r="V14" s="137"/>
-      <c r="W14" s="202"/>
+      <c r="A14" s="219"/>
+      <c r="B14" s="199"/>
+      <c r="C14" s="199"/>
+      <c r="D14" s="201"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="205"/>
+      <c r="G14" s="207"/>
+      <c r="H14" s="209"/>
+      <c r="I14" s="209"/>
+      <c r="J14" s="209"/>
+      <c r="K14" s="209"/>
+      <c r="L14" s="209"/>
+      <c r="M14" s="214"/>
+      <c r="N14" s="216"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="212"/>
+      <c r="Q14" s="212"/>
+      <c r="R14" s="199"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="212"/>
+      <c r="U14" s="212"/>
+      <c r="V14" s="182"/>
+      <c r="W14" s="199"/>
       <c r="X14" s="36"/>
       <c r="Y14" s="36"/>
       <c r="Z14" s="36"/>
@@ -23176,29 +23176,29 @@
       <c r="CF14" s="36"/>
     </row>
     <row r="15" spans="1:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="205"/>
-      <c r="B15" s="203"/>
-      <c r="C15" s="203"/>
-      <c r="D15" s="228"/>
-      <c r="E15" s="230"/>
-      <c r="F15" s="232"/>
-      <c r="G15" s="234"/>
-      <c r="H15" s="224"/>
-      <c r="I15" s="224"/>
-      <c r="J15" s="224"/>
-      <c r="K15" s="224"/>
-      <c r="L15" s="224"/>
-      <c r="M15" s="226"/>
-      <c r="N15" s="216"/>
-      <c r="O15" s="121"/>
-      <c r="P15" s="201"/>
-      <c r="Q15" s="201"/>
-      <c r="R15" s="203"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="201"/>
-      <c r="U15" s="201"/>
-      <c r="V15" s="138"/>
-      <c r="W15" s="203"/>
+      <c r="A15" s="219"/>
+      <c r="B15" s="200"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="204"/>
+      <c r="F15" s="206"/>
+      <c r="G15" s="208"/>
+      <c r="H15" s="210"/>
+      <c r="I15" s="210"/>
+      <c r="J15" s="210"/>
+      <c r="K15" s="210"/>
+      <c r="L15" s="210"/>
+      <c r="M15" s="215"/>
+      <c r="N15" s="217"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="213"/>
+      <c r="Q15" s="213"/>
+      <c r="R15" s="200"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="213"/>
+      <c r="U15" s="213"/>
+      <c r="V15" s="183"/>
+      <c r="W15" s="200"/>
       <c r="X15" s="36"/>
       <c r="Y15" s="36"/>
       <c r="Z15" s="36"/>
@@ -23262,53 +23262,53 @@
       <c r="CF15" s="36"/>
     </row>
     <row r="16" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="205"/>
-      <c r="B16" s="162">
+      <c r="A16" s="219"/>
+      <c r="B16" s="167">
         <v>4</v>
       </c>
-      <c r="C16" s="162" t="s">
+      <c r="C16" s="167" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="163"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="167" t="s">
+      <c r="D16" s="168"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="168"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="148"/>
-      <c r="K16" s="148"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="151"/>
-      <c r="N16" s="154" t="s">
+      <c r="G16" s="174"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="175"/>
+      <c r="L16" s="175"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="119" t="s">
+      <c r="O16" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="P16" s="199">
+      <c r="P16" s="211">
         <v>42091</v>
       </c>
-      <c r="Q16" s="199">
+      <c r="Q16" s="211">
         <v>42091</v>
       </c>
-      <c r="R16" s="162" t="s">
+      <c r="R16" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="S16" s="101" t="s">
+      <c r="S16" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="T16" s="199">
+      <c r="T16" s="211">
         <v>42094</v>
       </c>
-      <c r="U16" s="199">
+      <c r="U16" s="211">
         <v>42094</v>
       </c>
-      <c r="V16" s="136" t="s">
+      <c r="V16" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="W16" s="162" t="s">
+      <c r="W16" s="167" t="s">
         <v>43</v>
       </c>
       <c r="X16" s="36"/>
@@ -23374,29 +23374,29 @@
       <c r="CF16" s="36"/>
     </row>
     <row r="17" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A17" s="205"/>
-      <c r="B17" s="202"/>
-      <c r="C17" s="202"/>
-      <c r="D17" s="227"/>
-      <c r="E17" s="229"/>
-      <c r="F17" s="231"/>
-      <c r="G17" s="233"/>
-      <c r="H17" s="223"/>
-      <c r="I17" s="223"/>
-      <c r="J17" s="223"/>
-      <c r="K17" s="223"/>
-      <c r="L17" s="223"/>
-      <c r="M17" s="225"/>
-      <c r="N17" s="215"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="200"/>
-      <c r="Q17" s="200"/>
-      <c r="R17" s="202"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="200"/>
-      <c r="U17" s="200"/>
-      <c r="V17" s="137"/>
-      <c r="W17" s="202"/>
+      <c r="A17" s="219"/>
+      <c r="B17" s="199"/>
+      <c r="C17" s="199"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="205"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="209"/>
+      <c r="I17" s="209"/>
+      <c r="J17" s="209"/>
+      <c r="K17" s="209"/>
+      <c r="L17" s="209"/>
+      <c r="M17" s="214"/>
+      <c r="N17" s="216"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="212"/>
+      <c r="Q17" s="212"/>
+      <c r="R17" s="199"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="212"/>
+      <c r="U17" s="212"/>
+      <c r="V17" s="182"/>
+      <c r="W17" s="199"/>
       <c r="X17" s="36"/>
       <c r="Y17" s="36"/>
       <c r="Z17" s="36"/>
@@ -23460,29 +23460,29 @@
       <c r="CF17" s="36"/>
     </row>
     <row r="18" spans="1:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="205"/>
-      <c r="B18" s="203"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="228"/>
-      <c r="E18" s="230"/>
-      <c r="F18" s="232"/>
-      <c r="G18" s="234"/>
-      <c r="H18" s="224"/>
-      <c r="I18" s="224"/>
-      <c r="J18" s="224"/>
-      <c r="K18" s="224"/>
-      <c r="L18" s="224"/>
-      <c r="M18" s="226"/>
-      <c r="N18" s="216"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="201"/>
-      <c r="Q18" s="201"/>
-      <c r="R18" s="203"/>
-      <c r="S18" s="102"/>
-      <c r="T18" s="201"/>
-      <c r="U18" s="201"/>
-      <c r="V18" s="138"/>
-      <c r="W18" s="203"/>
+      <c r="A18" s="219"/>
+      <c r="B18" s="200"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="202"/>
+      <c r="E18" s="204"/>
+      <c r="F18" s="206"/>
+      <c r="G18" s="208"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="210"/>
+      <c r="J18" s="210"/>
+      <c r="K18" s="210"/>
+      <c r="L18" s="210"/>
+      <c r="M18" s="215"/>
+      <c r="N18" s="217"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="213"/>
+      <c r="Q18" s="213"/>
+      <c r="R18" s="200"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="213"/>
+      <c r="U18" s="213"/>
+      <c r="V18" s="183"/>
+      <c r="W18" s="200"/>
       <c r="X18" s="36"/>
       <c r="Y18" s="36"/>
       <c r="Z18" s="36"/>
@@ -23546,53 +23546,53 @@
       <c r="CF18" s="36"/>
     </row>
     <row r="19" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="205"/>
-      <c r="B19" s="162">
+      <c r="A19" s="219"/>
+      <c r="B19" s="167">
         <v>5</v>
       </c>
-      <c r="C19" s="217" t="s">
+      <c r="C19" s="229" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="206"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="206" t="s">
+      <c r="D19" s="220"/>
+      <c r="E19" s="223"/>
+      <c r="F19" s="220" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="212"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="212"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="212"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="220"/>
-      <c r="N19" s="154" t="s">
+      <c r="G19" s="226"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="226"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="226"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="232"/>
+      <c r="N19" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="O19" s="119" t="s">
+      <c r="O19" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="P19" s="199">
+      <c r="P19" s="211">
         <v>42091</v>
       </c>
-      <c r="Q19" s="199">
+      <c r="Q19" s="211">
         <v>42091</v>
       </c>
-      <c r="R19" s="162" t="s">
+      <c r="R19" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="S19" s="101" t="s">
+      <c r="S19" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="T19" s="199">
+      <c r="T19" s="211">
         <v>42094</v>
       </c>
-      <c r="U19" s="199">
+      <c r="U19" s="211">
         <v>42094</v>
       </c>
-      <c r="V19" s="136" t="s">
+      <c r="V19" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="W19" s="162" t="s">
+      <c r="W19" s="167" t="s">
         <v>43</v>
       </c>
       <c r="X19" s="36"/>
@@ -23658,29 +23658,29 @@
       <c r="CF19" s="36"/>
     </row>
     <row r="20" spans="1:84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="205"/>
-      <c r="B20" s="202"/>
-      <c r="C20" s="218"/>
-      <c r="D20" s="207"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="207"/>
-      <c r="G20" s="213"/>
-      <c r="H20" s="215"/>
-      <c r="I20" s="213"/>
-      <c r="J20" s="215"/>
-      <c r="K20" s="213"/>
-      <c r="L20" s="215"/>
-      <c r="M20" s="221"/>
-      <c r="N20" s="215"/>
-      <c r="O20" s="120"/>
-      <c r="P20" s="200"/>
-      <c r="Q20" s="200"/>
-      <c r="R20" s="202"/>
-      <c r="S20" s="101"/>
-      <c r="T20" s="200"/>
-      <c r="U20" s="200"/>
-      <c r="V20" s="137"/>
-      <c r="W20" s="202"/>
+      <c r="A20" s="219"/>
+      <c r="B20" s="199"/>
+      <c r="C20" s="230"/>
+      <c r="D20" s="221"/>
+      <c r="E20" s="224"/>
+      <c r="F20" s="221"/>
+      <c r="G20" s="227"/>
+      <c r="H20" s="216"/>
+      <c r="I20" s="227"/>
+      <c r="J20" s="216"/>
+      <c r="K20" s="227"/>
+      <c r="L20" s="216"/>
+      <c r="M20" s="233"/>
+      <c r="N20" s="216"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="212"/>
+      <c r="Q20" s="212"/>
+      <c r="R20" s="199"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="212"/>
+      <c r="U20" s="212"/>
+      <c r="V20" s="182"/>
+      <c r="W20" s="199"/>
       <c r="X20" s="36"/>
       <c r="Y20" s="36"/>
       <c r="Z20" s="36"/>
@@ -23744,29 +23744,29 @@
       <c r="CF20" s="36"/>
     </row>
     <row r="21" spans="1:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="205"/>
-      <c r="B21" s="203"/>
-      <c r="C21" s="219"/>
-      <c r="D21" s="208"/>
-      <c r="E21" s="211"/>
-      <c r="F21" s="208"/>
-      <c r="G21" s="214"/>
-      <c r="H21" s="216"/>
-      <c r="I21" s="214"/>
-      <c r="J21" s="216"/>
-      <c r="K21" s="214"/>
-      <c r="L21" s="216"/>
-      <c r="M21" s="222"/>
-      <c r="N21" s="216"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="201"/>
-      <c r="Q21" s="201"/>
-      <c r="R21" s="203"/>
-      <c r="S21" s="102"/>
-      <c r="T21" s="201"/>
-      <c r="U21" s="201"/>
-      <c r="V21" s="138"/>
-      <c r="W21" s="203"/>
+      <c r="A21" s="219"/>
+      <c r="B21" s="200"/>
+      <c r="C21" s="231"/>
+      <c r="D21" s="222"/>
+      <c r="E21" s="225"/>
+      <c r="F21" s="222"/>
+      <c r="G21" s="228"/>
+      <c r="H21" s="217"/>
+      <c r="I21" s="228"/>
+      <c r="J21" s="217"/>
+      <c r="K21" s="228"/>
+      <c r="L21" s="217"/>
+      <c r="M21" s="234"/>
+      <c r="N21" s="217"/>
+      <c r="O21" s="117"/>
+      <c r="P21" s="213"/>
+      <c r="Q21" s="213"/>
+      <c r="R21" s="200"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="213"/>
+      <c r="U21" s="213"/>
+      <c r="V21" s="183"/>
+      <c r="W21" s="200"/>
       <c r="X21" s="25"/>
       <c r="Y21" s="25"/>
       <c r="Z21" s="25"/>
@@ -23832,7 +23832,7 @@
     <row r="22" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="131" t="s">
+      <c r="C22" s="197" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="39">
@@ -23950,35 +23950,35 @@
     <row r="23" spans="1:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="127" t="s">
+      <c r="C23" s="198"/>
+      <c r="D23" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="127" t="s">
+      <c r="E23" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="127" t="s">
+      <c r="F23" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="127" t="s">
+      <c r="G23" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="127" t="s">
+      <c r="H23" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="127" t="s">
+      <c r="I23" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="127" t="s">
+      <c r="J23" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="127" t="s">
+      <c r="K23" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="127" t="s">
+      <c r="L23" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="M23" s="129" t="s">
+      <c r="M23" s="195" t="s">
         <v>10</v>
       </c>
       <c r="N23" s="37"/>
@@ -24060,16 +24060,16 @@
         <f>SUM(D22:M22)</f>
         <v>5</v>
       </c>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="128"/>
-      <c r="L24" s="128"/>
-      <c r="M24" s="130"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="194"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="194"/>
+      <c r="J24" s="194"/>
+      <c r="K24" s="194"/>
+      <c r="L24" s="194"/>
+      <c r="M24" s="196"/>
       <c r="N24" s="37"/>
       <c r="O24" s="37"/>
       <c r="P24" s="38"/>
@@ -30680,26 +30680,118 @@
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="D1:W1"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:W2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:W3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="S19:S21"/>
+    <mergeCell ref="T19:T21"/>
+    <mergeCell ref="U19:U21"/>
+    <mergeCell ref="V19:V21"/>
+    <mergeCell ref="W19:W21"/>
+    <mergeCell ref="A7:A21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="Q19:Q21"/>
+    <mergeCell ref="R19:R21"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="U16:U18"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="Q16:Q18"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="S16:S18"/>
+    <mergeCell ref="T16:T18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="N16:N18"/>
+    <mergeCell ref="W13:W15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="Q13:Q15"/>
+    <mergeCell ref="R13:R15"/>
+    <mergeCell ref="S13:S15"/>
+    <mergeCell ref="T13:T15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="V16:V18"/>
+    <mergeCell ref="W16:W18"/>
+    <mergeCell ref="O16:O18"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="U10:U12"/>
+    <mergeCell ref="V10:V12"/>
+    <mergeCell ref="W10:W12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="R10:R12"/>
+    <mergeCell ref="S10:S12"/>
+    <mergeCell ref="T10:T12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="U13:U15"/>
+    <mergeCell ref="V13:V15"/>
+    <mergeCell ref="Q7:Q9"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="T7:T9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="P7:P9"/>
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="W5:W6"/>
     <mergeCell ref="B7:B9"/>
@@ -30724,118 +30816,26 @@
     <mergeCell ref="U7:U9"/>
     <mergeCell ref="V7:V9"/>
     <mergeCell ref="W7:W9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="Q7:Q9"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="T7:T9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="U10:U12"/>
-    <mergeCell ref="V10:V12"/>
-    <mergeCell ref="W10:W12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="O10:O12"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="S10:S12"/>
-    <mergeCell ref="T10:T12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="U13:U15"/>
-    <mergeCell ref="V13:V15"/>
-    <mergeCell ref="W13:W15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="O13:O15"/>
-    <mergeCell ref="P13:P15"/>
-    <mergeCell ref="Q13:Q15"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="V16:V18"/>
-    <mergeCell ref="W16:W18"/>
-    <mergeCell ref="O16:O18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="Q16:Q18"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="S16:S18"/>
-    <mergeCell ref="T16:T18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="N16:N18"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="S19:S21"/>
-    <mergeCell ref="T19:T21"/>
-    <mergeCell ref="U19:U21"/>
-    <mergeCell ref="V19:V21"/>
-    <mergeCell ref="W19:W21"/>
-    <mergeCell ref="A7:A21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="Q19:Q21"/>
-    <mergeCell ref="R19:R21"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="U16:U18"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="D1:W1"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:W2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:W3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:V4"/>
   </mergeCells>
   <conditionalFormatting sqref="AD4">
     <cfRule type="iconSet" priority="10">
